--- a/data/zerg_data.xlsx
+++ b/data/zerg_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradychiu/Dropbox (Uber Technologies)/R/Starcraft2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradychiu/Dropbox (Uber Technologies)/R/sc2_unit_clustering/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="4400" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="3340" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>cooldown</t>
   </si>
   <si>
-    <t>peed</t>
-  </si>
-  <si>
     <t>creep_bonus</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>sight</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1435,16 +1435,16 @@
         <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
